--- a/xlsx/高級中學_intext.xlsx
+++ b/xlsx/高級中學_intext.xlsx
@@ -29,7 +29,7 @@
     <t>高級中學 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_高級中學</t>
+    <t>体育运动_体育运动_体育_高級中學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%98%86%E8%A5%BF%E9%AB%98%E4%B8%AD</t>
